--- a/ONCHO/Impact Assessments/Cameroon/cm_oncho_pre_stop_4_202309_info_vecteur.xlsx
+++ b/ONCHO/Impact Assessments/Cameroon/cm_oncho_pre_stop_4_202309_info_vecteur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cameroon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F41FAE6-E70B-41BB-8498-F4A7148268DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED70C2BA-FCED-422A-A0BE-81F3CE16F9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="495">
   <si>
     <t>type</t>
   </si>
@@ -1501,12 +1501,6 @@
     <t>village_id</t>
   </si>
   <si>
-    <t>cm_oncho_pre_stop_4_202309_info_vecteur_v1_2</t>
-  </si>
-  <si>
-    <t>(Sept 2023) ONCHO - 4. Info vecteur V1.2</t>
-  </si>
-  <si>
     <t>Etes-vous souvent piqués par les mouches noires (Mout-Mout ?)</t>
   </si>
   <si>
@@ -1514,6 +1508,18 @@
   </si>
   <si>
     <t>Y a-t-il un endroit de la rivière où l’eau coule vite et semble être blanche dans ou près du village </t>
+  </si>
+  <si>
+    <t>cm_oncho_pre_stop_4_202309_info_vecteur_v1_"</t>
+  </si>
+  <si>
+    <t>(Sept 2023) ONCHO - 4. Info vecteur V1.3.</t>
+  </si>
+  <si>
+    <t>Quelle est l'intensité des piqûres</t>
+  </si>
+  <si>
+    <t>v_riviere</t>
   </si>
 </sst>
 </file>
@@ -1936,10 +1942,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,7 +2136,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I10" s="8"/>
     </row>
@@ -2142,7 +2148,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>51</v>
@@ -2154,39 +2160,51 @@
         <v>32</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="8"/>
+      <c r="C13" s="5" t="s">
+        <v>490</v>
+      </c>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2209,8 +2227,8 @@
   <dimension ref="A1:F782"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13102,7 +13120,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13125,10 +13143,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>20</v>
